--- a/order.xlsx
+++ b/order.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -31,112 +31,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>"639dd25757f9f218d9f9fcf1"</t>
-  </si>
-  <si>
-    <t>Delivered</t>
-  </si>
-  <si>
-    <t>Sat Dec 17 2022</t>
-  </si>
-  <si>
-    <t>"639dd9c252aa40dc2d927892"</t>
-  </si>
-  <si>
-    <t>"639eb0a9384ff5cdf7731927"</t>
-  </si>
-  <si>
-    <t>Sun Dec 18 2022</t>
-  </si>
-  <si>
-    <t>"63a026163d71800ce052ac1e"</t>
-  </si>
-  <si>
-    <t>Mon Dec 19 2022</t>
-  </si>
-  <si>
-    <t>"63a0263b3d71800ce052ac3d"</t>
-  </si>
-  <si>
-    <t>"63a0278b3d71800ce052ac45"</t>
-  </si>
-  <si>
-    <t>"63a08ce2d7ef0237e7970978"</t>
-  </si>
-  <si>
-    <t>"63a17e5efb63079607bfeb43"</t>
-  </si>
-  <si>
-    <t>Tue Dec 20 2022</t>
-  </si>
-  <si>
-    <t>"63a1b359274e4e72bd91f602"</t>
-  </si>
-  <si>
-    <t>"63a2a45eedb0131738347271"</t>
-  </si>
-  <si>
-    <t>Shipped</t>
-  </si>
-  <si>
-    <t>Wed Dec 21 2022</t>
-  </si>
-  <si>
-    <t>"63a2e03535c6f287ed96761a"</t>
-  </si>
-  <si>
-    <t>"63a2f3ff7fa7aef6cb2b3e52"</t>
-  </si>
-  <si>
-    <t>"63a2f4087fa7aef6cb2b3e5a"</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
-    <t>"63a2f4d63658fd5592aae971"</t>
-  </si>
-  <si>
-    <t>"63a2f5013658fd5592aae983"</t>
-  </si>
-  <si>
-    <t>"63a30bb2b12430d1ab2bb4cc"</t>
+    <t>"63b1a1ebd54536f371a62ba4"</t>
   </si>
   <si>
     <t>Placed</t>
   </si>
   <si>
-    <t>"63a30be2b12430d1ab2bb4ee"</t>
-  </si>
-  <si>
-    <t>"63a4150f8fd8fc87562c27d0"</t>
-  </si>
-  <si>
-    <t>Thu Dec 22 2022</t>
-  </si>
-  <si>
-    <t>"63a6f96631d28831826d4cbe"</t>
-  </si>
-  <si>
-    <t>Sat Dec 24 2022</t>
-  </si>
-  <si>
-    <t>"63acd165b58c203600661390"</t>
-  </si>
-  <si>
-    <t>Thu Dec 29 2022</t>
-  </si>
-  <si>
-    <t>"63acd1af8a414240a7bf50ee"</t>
-  </si>
-  <si>
-    <t>"63acd1b48a414240a7bf50f7"</t>
-  </si>
-  <si>
-    <t>"63acd2478a414240a7bf513e"</t>
-  </si>
-  <si>
-    <t>"63ad15eddb80794be3aee1a6"</t>
+    <t>Sun Jan 01 2023</t>
+  </si>
+  <si>
+    <t>"63b1a1fdd54536f371a62bb7"</t>
+  </si>
+  <si>
+    <t>"63b1a20cd54536f371a62bcc"</t>
   </si>
 </sst>
 </file>
@@ -513,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -579,301 +486,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
